--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909729.0310670241</v>
+        <v>907030.2785573626</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12450550.90759198</v>
+        <v>12450591.92528422</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11346646.81281829</v>
+        <v>11346821.41263907</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>158.296491434383</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.261311358952</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>184.029574606877</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>40.27514111676885</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>36.7006923759409</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>265.8615297062279</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.12176100286048</v>
+        <v>12.12407229334913</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5862358447987</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0913596900936</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.630710462754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>71.27158169085293</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>135.6427813325164</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>140.0927489854604</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3095697982953</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294102072821</v>
+        <v>225.8294915657976</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>143.9286803212504</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.82453260745461</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555727</v>
+        <v>112.5715838170145</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502781</v>
+        <v>113.1824495902089</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1500311756599</v>
+        <v>199.1680991680674</v>
       </c>
       <c r="T7" t="n">
-        <v>146.5549550979466</v>
+        <v>221.8533648751332</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241199726252</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.3500348510087</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
-        <v>120.5594962809146</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.86710342343097</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3012171022969</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7415240061373</v>
+        <v>189.655441187015</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7712536040104</v>
+        <v>225.7698485525558</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>68.22504872150967</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.12932374479107</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>359.5517498754649</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560517</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868892</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.974488840439471</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722615</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922708</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>249.0212053075214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795613</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503992</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.30373791808226</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.026286001642</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.4744566894672</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456787</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>159.9541141389061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>212.5602966632236</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>122.4770547252859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819354</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833984</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>36.43062059490537</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>48.47457675531703</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4034,10 +4034,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>240.6916079404332</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>224.59746731481</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>371.26277863231</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389938</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,13 +4328,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487947</v>
+        <v>224.59746731481</v>
       </c>
       <c r="W2" t="n">
-        <v>371.26277863231</v>
+        <v>224.59746731481</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>224.59746731481</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>224.59746731481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>409.399488203391</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>223.5110290045253</v>
+        <v>344.079722251358</v>
       </c>
       <c r="W3" t="n">
-        <v>223.5110290045253</v>
+        <v>344.079722251358</v>
       </c>
       <c r="X3" t="n">
-        <v>223.5110290045253</v>
+        <v>154.6599372348733</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.5110290045253</v>
+        <v>154.6599372348733</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.07345341364993</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C4" t="n">
-        <v>52.07345341364993</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D4" t="n">
-        <v>52.07345341364993</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E4" t="n">
-        <v>52.07345341364993</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>52.07345341364993</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>52.07345341364993</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>52.07345341364993</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
         <v>15.00204697330559</v>
@@ -4492,13 +4492,13 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484195</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430762</v>
+        <v>447.3950989318186</v>
       </c>
       <c r="N4" t="n">
-        <v>490.0533950377329</v>
+        <v>633.0454302264752</v>
       </c>
       <c r="O4" t="n">
         <v>634.3723839608017</v>
@@ -4507,31 +4507,31 @@
         <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603744</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U4" t="n">
-        <v>423.1417032603744</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V4" t="n">
-        <v>233.7219182438896</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W4" t="n">
-        <v>233.7219182438896</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X4" t="n">
-        <v>233.7219182438896</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.7219182438896</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460.7962679602291</v>
+        <v>1215.495941438005</v>
       </c>
       <c r="C5" t="n">
-        <v>460.7962679602291</v>
+        <v>846.5334244975933</v>
       </c>
       <c r="D5" t="n">
-        <v>460.7962679602291</v>
+        <v>846.5334244975933</v>
       </c>
       <c r="E5" t="n">
-        <v>460.7962679602291</v>
+        <v>460.745171899349</v>
       </c>
       <c r="F5" t="n">
-        <v>49.81036317062156</v>
+        <v>49.75926710974146</v>
       </c>
       <c r="G5" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.3646689521495</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405706</v>
+        <v>307.7704712613119</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714455</v>
+        <v>570.9627603081358</v>
       </c>
       <c r="M5" t="n">
-        <v>896.785908267269</v>
+        <v>895.4843310418033</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917813</v>
+        <v>1229.870808445631</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379521</v>
+        <v>1532.287215726471</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280671</v>
+        <v>1755.891621830853</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871458</v>
+        <v>1875.636471984591</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871458</v>
+        <v>1875.636471984591</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871458</v>
+        <v>1737.670577191865</v>
       </c>
       <c r="T5" t="n">
-        <v>1878.308006871458</v>
+        <v>1737.670577191865</v>
       </c>
       <c r="U5" t="n">
-        <v>1878.308006871458</v>
+        <v>1484.042941141266</v>
       </c>
       <c r="V5" t="n">
-        <v>1878.308006871458</v>
+        <v>1484.042941141266</v>
       </c>
       <c r="W5" t="n">
-        <v>1525.539351601344</v>
+        <v>1484.042941141266</v>
       </c>
       <c r="X5" t="n">
-        <v>1152.073593340264</v>
+        <v>1484.042941141266</v>
       </c>
       <c r="Y5" t="n">
-        <v>847.396108024351</v>
+        <v>1484.042941141266</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497.9652603758497</v>
+        <v>405.7545915394598</v>
       </c>
       <c r="C6" t="n">
-        <v>323.5122310947227</v>
+        <v>405.7545915394598</v>
       </c>
       <c r="D6" t="n">
-        <v>174.5778214334714</v>
+        <v>333.7630948820326</v>
       </c>
       <c r="E6" t="n">
-        <v>174.5778214334714</v>
+        <v>174.5256398765771</v>
       </c>
       <c r="F6" t="n">
-        <v>174.5778214334714</v>
+        <v>174.5256398765771</v>
       </c>
       <c r="G6" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="J6" t="n">
-        <v>132.4305237738436</v>
+        <v>71.01889581028202</v>
       </c>
       <c r="K6" t="n">
-        <v>529.8710030987552</v>
+        <v>206.4410956462051</v>
       </c>
       <c r="L6" t="n">
-        <v>758.551229188997</v>
+        <v>434.8554966182204</v>
       </c>
       <c r="M6" t="n">
-        <v>1044.767135059138</v>
+        <v>720.761197113552</v>
       </c>
       <c r="N6" t="n">
-        <v>1352.966969211401</v>
+        <v>1143.000270509911</v>
       </c>
       <c r="O6" t="n">
-        <v>1612.689810537065</v>
+        <v>1402.431823780057</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027795</v>
+        <v>1591.315450925825</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871458</v>
+        <v>1875.636471984591</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871458</v>
+        <v>1875.636471984591</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856707</v>
+        <v>1734.12864472655</v>
       </c>
       <c r="T6" t="n">
-        <v>1736.823381856707</v>
+        <v>1538.8664530111</v>
       </c>
       <c r="U6" t="n">
-        <v>1508.712866495816</v>
+        <v>1310.755855469891</v>
       </c>
       <c r="V6" t="n">
-        <v>1273.560758264073</v>
+        <v>1075.603747238148</v>
       </c>
       <c r="W6" t="n">
-        <v>1019.323401535872</v>
+        <v>821.3663905099465</v>
       </c>
       <c r="X6" t="n">
-        <v>873.9408961608715</v>
+        <v>613.5148903044137</v>
       </c>
       <c r="Y6" t="n">
-        <v>666.1805973959176</v>
+        <v>405.7545915394598</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617.4313107041877</v>
+        <v>320.1575828898356</v>
       </c>
       <c r="C7" t="n">
-        <v>617.4313107041877</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="D7" t="n">
-        <v>617.4313107041877</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="E7" t="n">
-        <v>617.4313107041877</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="F7" t="n">
-        <v>470.5413632062774</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="G7" t="n">
-        <v>302.2947947173078</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742916</v>
+        <v>37.51272943969182</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256561</v>
+        <v>44.88594547809208</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696029</v>
+        <v>186.8392411052401</v>
       </c>
       <c r="L7" t="n">
-        <v>424.414864410129</v>
+        <v>424.0170213018157</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467499</v>
+        <v>684.4768588349671</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609269</v>
+        <v>944.1781600097946</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103175</v>
+        <v>1168.038050003899</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890531</v>
+        <v>1336.068176656003</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552811</v>
+        <v>1368.968446508014</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512126</v>
+        <v>1254.642739851237</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.599143859944</v>
+        <v>1053.462841701674</v>
       </c>
       <c r="T7" t="n">
-        <v>906.5638356801999</v>
+        <v>829.3685337469938</v>
       </c>
       <c r="U7" t="n">
-        <v>617.4313107041877</v>
+        <v>829.3685337469938</v>
       </c>
       <c r="V7" t="n">
-        <v>617.4313107041877</v>
+        <v>829.3685337469938</v>
       </c>
       <c r="W7" t="n">
-        <v>617.4313107041877</v>
+        <v>829.3685337469938</v>
       </c>
       <c r="X7" t="n">
-        <v>617.4313107041877</v>
+        <v>601.3789828489764</v>
       </c>
       <c r="Y7" t="n">
-        <v>617.4313107041877</v>
+        <v>380.5864037054463</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1462.856840871423</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1093.894323931011</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>735.6286253242606</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>349.8403727260164</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,19 +4799,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847234</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847234</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1462.856840871423</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>551.6025748766947</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081664</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.9918807365201</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9918807365201</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365201</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>934.4224756083073</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>706.43292471029</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.6403455667598</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1166.296315748938</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1166.296315748938</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.436431609049</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194418</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592081</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464065</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.88329579604</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.88329579604</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377405</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498933</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155362</v>
+        <v>3038.232418260477</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885248</v>
+        <v>2685.463762990363</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.579204885248</v>
+        <v>2311.998004729283</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.439872909436</v>
+        <v>1921.858672753471</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5522947932185</v>
+        <v>941.5530399535777</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0992655120915</v>
+        <v>767.1000106724507</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1648558508402</v>
+        <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592081</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592081</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335454</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>488.5008422034045</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599334</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.377995458575</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.478772117604</v>
+        <v>2434.391145691522</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.8206670609</v>
+        <v>2242.819992977365</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.768895743717</v>
+        <v>2014.769640904077</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.616787511975</v>
+        <v>1779.617532672334</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.379430783773</v>
+        <v>1525.380175944132</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.52793057824</v>
+        <v>1317.5286757386</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.767631813286</v>
+        <v>1109.768376973646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>853.1707266144763</v>
+        <v>395.3603427349919</v>
       </c>
       <c r="C13" t="n">
-        <v>684.2345436865694</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865694</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041762</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062659</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174541</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592081</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592081</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>368.4550473457701</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.36296874281</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925585</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458881</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1799.713428831094</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1799.713428831094</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1545.028940625207</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1255.611770588246</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>1255.611770588246</v>
+        <v>797.8013867087617</v>
       </c>
       <c r="Y13" t="n">
-        <v>1034.819191444716</v>
+        <v>577.0088075652316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1016.377752616089</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856864</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577795</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454436</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="E16" t="n">
-        <v>489.8360330454436</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159261</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,19 +5595,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511926</v>
+        <v>538.736343540612</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232857</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232857</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408926</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1686.749820929701</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1397.33265089274</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.343099994723</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511926</v>
+        <v>720.3848083708517</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958738</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679669</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556312</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>189.0729639753277</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261134</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478297</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038356</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797757</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1500.747069396417</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>1279.954490252887</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,10 +7020,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1055.185257670614</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>886.2490747427074</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>736.1324353303717</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>588.2193417479785</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>441.3293942500682</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,13 +7096,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7123,22 +7123,22 @@
         <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235164</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579362</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1975.033022579362</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1685.615852542402</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1457.626301644384</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1236.833722500854</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327656</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048588</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D40" t="n">
-        <v>444.701316492523</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925229</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="F40" t="n">
-        <v>297.8113689946125</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="G40" t="n">
-        <v>130.6152697094925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>130.6152697094925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630054</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835328</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835328</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>697.527634571197</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.614540988804</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1801.383947954638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1546.699459748751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.28228971179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1029.292738813773</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>153.3759016847017</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>144.4363991805478</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496436</v>
+        <v>15.91370857612239</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>61.86114078412466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>115.5127826587195</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438824</v>
+        <v>40.08469510735198</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>255.8421700460943</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111058</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.8667382400496</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.62915296996488</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>150.4573705183943</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>189.5803316442461</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173867</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>140.4465591824918</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.116438016306603</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253352</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.4596884482286</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.22040037418658</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3575234924700794</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294911</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>126.5688841976849</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>73.62417772602058</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>43.04708356698297</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.549864093929</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>44.83521572366016</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>203.663066568511</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>45.49286644881093</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1008138.285076177</v>
+        <v>1008129.261183884</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892525.8603595472</v>
+        <v>897886.0540219167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>981994.6868582783</v>
+        <v>976634.493195908</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582783</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.084350918</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295034</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
@@ -26341,19 +26341,19 @@
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295032</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>443930.6298295032</v>
       </c>
-      <c r="N2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295034</v>
-      </c>
       <c r="P2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912904</v>
+        <v>311475.5486359363</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972646</v>
+        <v>176113.3450239637</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545783</v>
+        <v>325187.1190357062</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854443</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030193</v>
+        <v>72419.11656261115</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925486</v>
+        <v>43449.57815826789</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273106</v>
+        <v>84929.59434456812</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202333</v>
+        <v>43782.40655848906</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057574</v>
+        <v>195348.4800747344</v>
       </c>
       <c r="D4" t="n">
         <v>146359.3674130576</v>
       </c>
       <c r="E4" t="n">
-        <v>14111.33351720851</v>
+        <v>14117.63111954901</v>
       </c>
       <c r="F4" t="n">
+        <v>14210.2194556297</v>
+      </c>
+      <c r="G4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685502</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26439,25 +26439,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685507</v>
       </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
-      </c>
       <c r="N4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685509</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638311</v>
+        <v>79374.38120560537</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-474938.9061703096</v>
+        <v>-474938.9061703098</v>
       </c>
       <c r="C6" t="n">
-        <v>-135221.5146580752</v>
+        <v>-134625.4364909203</v>
       </c>
       <c r="D6" t="n">
-        <v>36862.33437518886</v>
+        <v>36162.48854848981</v>
       </c>
       <c r="E6" t="n">
-        <v>-9901.891588254512</v>
+        <v>-20227.59678174286</v>
       </c>
       <c r="F6" t="n">
-        <v>139283.0791583134</v>
+        <v>160554.2743307455</v>
       </c>
       <c r="G6" t="n">
-        <v>328591.3479287412</v>
+        <v>317389.3737677261</v>
       </c>
       <c r="H6" t="n">
-        <v>328591.3479287412</v>
+        <v>328556.6100033057</v>
       </c>
       <c r="I6" t="n">
-        <v>328591.3479287411</v>
+        <v>328556.6100033054</v>
       </c>
       <c r="J6" t="n">
-        <v>279526.4032001968</v>
+        <v>279491.6652747609</v>
       </c>
       <c r="K6" t="n">
-        <v>256000.3394684393</v>
+        <v>256137.4934406944</v>
       </c>
       <c r="L6" t="n">
-        <v>285310.8051294862</v>
+        <v>285107.0318450375</v>
       </c>
       <c r="M6" t="n">
-        <v>246693.94421601</v>
+        <v>243627.0156587373</v>
       </c>
       <c r="N6" t="n">
-        <v>278751.7737967179</v>
+        <v>284774.2034448162</v>
       </c>
       <c r="O6" t="n">
-        <v>328591.3479287412</v>
+        <v>325533.3120260805</v>
       </c>
       <c r="P6" t="n">
-        <v>328591.3479287411</v>
+        <v>328556.6100033053</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074283004</v>
+        <v>790.6929739192473</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178645</v>
+        <v>468.9091179961478</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490101</v>
+        <v>981.3883278086475</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,28 +26960,28 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153958</v>
+        <v>242.2230330063427</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892389</v>
+        <v>143.371918198292</v>
       </c>
       <c r="E3" t="n">
-        <v>268.176345097412</v>
+        <v>278.1053753770165</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515446</v>
+        <v>281.3835308298279</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821742</v>
+        <v>171.675714103891</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489713</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506381</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515446</v>
+        <v>281.3835308298279</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821742</v>
+        <v>171.675714103891</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489713</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506381</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515446</v>
+        <v>281.3835308298279</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821742</v>
+        <v>171.675714103891</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489713</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506381</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6338786378788</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>24.94245412940947</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,10 +27436,10 @@
         <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>28.27187229091533</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377105</v>
       </c>
       <c r="V3" t="n">
-        <v>48.77101254254825</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>106.1588215298003</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>89.00652739492577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553084</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,10 +27591,10 @@
         <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.7394943271304</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>116.8723119572526</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>306.9212969131521</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094035</v>
+        <v>87.93039860750426</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127885</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>209.1812425557635</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.60722819329959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>76.17348387378583</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841044</v>
+        <v>95.80991660847587</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224377</v>
+        <v>30.84059657531987</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>61.84430488222711</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.0074475744827</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.565139569424</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.550160564931</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>75.29397996162498</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.241256277089</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.5260108907028</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
-        <v>165.9635020556764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.286899273526947e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30754,10 +30754,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274572</v>
+        <v>3.178665221785916</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633197</v>
+        <v>32.55350520261502</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894656</v>
+        <v>122.5454909629017</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586642</v>
+        <v>269.7852373675527</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232469</v>
+        <v>404.3381362057506</v>
       </c>
       <c r="L5" t="n">
-        <v>501.98195096077</v>
+        <v>501.6172119869814</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109328</v>
+        <v>558.1457996249167</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264331</v>
+        <v>567.1771821863159</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325027</v>
+        <v>535.5693298871822</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857242</v>
+        <v>457.0960322243423</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398909</v>
+        <v>343.2600839691341</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391678</v>
+        <v>199.6718292380097</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345688</v>
+        <v>72.43383374144663</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248195</v>
+        <v>13.91460700836786</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819657</v>
+        <v>0.2542932177428732</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128797</v>
+        <v>1.70073583069423</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808602</v>
+        <v>16.42552762802059</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917131</v>
+        <v>58.55603627609521</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142738</v>
+        <v>160.6822391622123</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829032</v>
+        <v>274.6315398187257</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437549</v>
+        <v>369.275996923324</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484237</v>
+        <v>430.9276707859897</v>
       </c>
       <c r="N6" t="n">
-        <v>442.654675873498</v>
+        <v>442.333043966391</v>
       </c>
       <c r="O6" t="n">
-        <v>404.942548813802</v>
+        <v>404.6483184546925</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888051</v>
+        <v>324.7659499858131</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301251</v>
+        <v>217.0974369145828</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995757</v>
+        <v>105.594808856612</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923443</v>
+        <v>31.59042211837745</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571772</v>
+        <v>6.855158896526302</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119718736926841</v>
+        <v>0.111890515177252</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378902</v>
+        <v>1.425839789034708</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893243</v>
+        <v>12.6770119425086</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168555</v>
+        <v>42.87889111024378</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945884</v>
+        <v>100.8068730847538</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087488</v>
+        <v>165.6566591260324</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210234</v>
+        <v>211.9834900897602</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014128</v>
+        <v>223.5068680211406</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350916</v>
+        <v>218.1923742620114</v>
       </c>
       <c r="O7" t="n">
-        <v>201.682515158938</v>
+        <v>201.5359730901059</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496082</v>
+        <v>172.4488413937977</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216734</v>
+        <v>119.3946390618063</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689135</v>
+        <v>64.11094178696058</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131231</v>
+        <v>24.84849886890486</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709854</v>
+        <v>6.092224553148297</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0778296302388493</v>
+        <v>0.07777307940189325</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>273.9354624767017</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>237.3367583732575</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>620.3452877431807</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>671.3535095519902</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>344.2757660550399</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33740,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>500.7380235181012</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34860,16 +34860,16 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>169.4872848053133</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>145.7767564879483</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197792</v>
+        <v>88.73933284086638</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782664</v>
+        <v>184.24828516077</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907827</v>
+        <v>265.8507970169942</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836601</v>
+        <v>327.799566397644</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298422</v>
+        <v>337.764118589725</v>
       </c>
       <c r="O5" t="n">
-        <v>305.860544910816</v>
+        <v>305.4711184654955</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304546</v>
+        <v>225.8630364690728</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654414</v>
+        <v>120.9543940946846</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>95.82258953173177</v>
+        <v>33.84461249554565</v>
       </c>
       <c r="K6" t="n">
-        <v>401.4550296211228</v>
+        <v>136.7901008443667</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638807</v>
+        <v>230.7216171434498</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264054</v>
+        <v>288.7936368639714</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901648</v>
+        <v>426.5041145417771</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693575</v>
+        <v>262.0520740102481</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744749</v>
+        <v>190.7915425714829</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410355</v>
+        <v>287.1929505644104</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.52099227791561</v>
+        <v>7.447692968081071</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828659</v>
+        <v>143.3871673001495</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813395</v>
+        <v>239.5735153500763</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632534</v>
+        <v>263.0907449829812</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143202</v>
+        <v>262.32454664124</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729777</v>
+        <v>226.1211010041456</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145017</v>
+        <v>169.7274006586912</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997897</v>
+        <v>33.23259581011195</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>442.4296662895791</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>135.3810826968275</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>105.9950462899242</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>477.7490432987363</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655356</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>540.0117974686569</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295469</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060475</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>212.9340539717066</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>366.763616103771</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
